--- a/ctl-angular/dist/assets/CRECHE.xlsx
+++ b/ctl-angular/dist/assets/CRECHE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ctl-angular\ctl-angular\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2590E300-B6B3-4C06-9D4E-41B0BD1A2EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7B04A-9715-4F09-B15B-5830A01E6701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1440" windowWidth="17280" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>A viagem ao mundo das mil cores está prestes a (re)começar!</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>IMAGENS</t>
-  </si>
-  <si>
-    <t>Olá vanessa!</t>
   </si>
 </sst>
 </file>
@@ -673,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -795,9 +792,7 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
